--- a/ResultadoEleicoesDistritos/R. A. AÇORES_MADALENA.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_MADALENA.xlsx
@@ -597,64 +597,64 @@
         <v>1809</v>
       </c>
       <c r="H2" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="J2" t="n">
-        <v>767</v>
+        <v>708</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M2" t="n">
         <v>12</v>
       </c>
       <c r="N2" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S2" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="T2" t="n">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="U2" t="n">
         <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>1089</v>
+        <v>1123</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1193</v>
+        <v>1208</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
